--- a/src/variables attributes.xlsx
+++ b/src/variables attributes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloris\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a87d914ab787109/Documents/GitHub/immo_eliza_analysis/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9DB069-992E-4663-B3B5-C9EA414D92A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9B9DB069-992E-4663-B3B5-C9EA414D92A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AD1AC12-4728-48E6-8B84-2C1CFDC8D204}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C608F587-8FDA-4F85-B9F8-BF8DB8091730}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{C608F587-8FDA-4F85-B9F8-BF8DB8091730}"/>
   </bookViews>
   <sheets>
     <sheet name="variables grouping" sheetId="3" r:id="rId1"/>
@@ -429,7 +429,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,6 +624,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +800,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -801,6 +813,8 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1178,30 +1192,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FB17CB-B7BD-477B-AA1B-57319C0C5774}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G23:G24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
-    <col min="2" max="2" width="5.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="2" max="2" width="5.76953125" customWidth="1"/>
+    <col min="3" max="3" width="23.2265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.31640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.76953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.2265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="15.44140625" customWidth="1"/>
+    <col min="10" max="15" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.9">
       <c r="A1" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1218,7 +1232,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1226,7 +1240,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -1234,7 +1248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1245,7 +1259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1256,7 +1270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1281,7 +1295,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1289,21 +1303,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1311,107 +1325,116 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1419,7 +1442,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1427,7 +1450,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1435,7 +1458,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1443,7 +1466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1451,7 +1474,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1459,7 +1482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1467,142 +1490,142 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A36" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A48" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1620,20 +1643,20 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="2.21875" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.08984375" customWidth="1"/>
+    <col min="3" max="3" width="22.2265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.76953125" customWidth="1"/>
+    <col min="5" max="5" width="2.2265625" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.76953125" customWidth="1"/>
+    <col min="9" max="9" width="11.6796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B2" s="1" t="s">
         <v>85</v>
       </c>
@@ -1654,7 +1677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B3" t="s">
         <v>54</v>
       </c>
@@ -1674,7 +1697,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
         <v>54</v>
       </c>
@@ -1694,7 +1717,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
         <v>54</v>
       </c>
@@ -1714,7 +1737,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
         <v>54</v>
       </c>
@@ -1734,7 +1757,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
         <v>54</v>
       </c>
@@ -1754,7 +1777,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
         <v>54</v>
       </c>
@@ -1774,7 +1797,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
         <v>54</v>
       </c>
@@ -1794,7 +1817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B10" t="s">
         <v>54</v>
       </c>
@@ -1814,7 +1837,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
         <v>54</v>
       </c>
@@ -1834,7 +1857,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B12" t="s">
         <v>54</v>
       </c>
@@ -1845,7 +1868,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
         <v>54</v>
       </c>
@@ -1856,7 +1879,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
         <v>54</v>
       </c>
@@ -1867,7 +1890,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -1878,7 +1901,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B16" t="s">
         <v>54</v>
       </c>
@@ -1889,7 +1912,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
         <v>54</v>
       </c>

--- a/src/variables attributes.xlsx
+++ b/src/variables attributes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a87d914ab787109/Documents/GitHub/immo_eliza_analysis/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{9B9DB069-992E-4663-B3B5-C9EA414D92A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AD1AC12-4728-48E6-8B84-2C1CFDC8D204}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{9B9DB069-992E-4663-B3B5-C9EA414D92A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0348052-924D-47CD-BCFA-8F7124A90D82}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{C608F587-8FDA-4F85-B9F8-BF8DB8091730}"/>
+    <workbookView xWindow="-75" yWindow="75" windowWidth="4460" windowHeight="11280" xr2:uid="{C608F587-8FDA-4F85-B9F8-BF8DB8091730}"/>
   </bookViews>
   <sheets>
     <sheet name="variables grouping" sheetId="3" r:id="rId1"/>
@@ -24,22 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="91">
-  <si>
-    <t>Unnamed: 0</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>subtype</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
   <si>
     <t>bedroomCount</t>
   </si>
@@ -429,7 +414,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,12 +597,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,11 +789,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -871,6 +850,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1192,13 +1175,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88FB17CB-B7BD-477B-AA1B-57319C0C5774}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="26.54296875" customWidth="1"/>
+    <col min="1" max="1" width="31.08984375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.76953125" customWidth="1"/>
     <col min="3" max="3" width="23.2265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6796875" bestFit="1" customWidth="1"/>
@@ -1211,222 +1194,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.9">
-      <c r="A1" s="7" t="s">
-        <v>90</v>
+      <c r="A1" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="C6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A3" s="4" t="s">
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A8" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A11" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="C14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A17" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="C17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A19" s="9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="C19" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1435,203 +1400,194 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A25" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A27" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A28" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A29" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A30" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A31" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
+      <c r="A32" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A33" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A34" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A35" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A37" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A38" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A39" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A40" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A41" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A42" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A43" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A44" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A45" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A46" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A47" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A48" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A49" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A50" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A51" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A53" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A46" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A49" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A54" s="9" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
-      <c r="A54" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1658,269 +1614,269 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" t="s">
         <v>72</v>
       </c>
-      <c r="D6" t="s">
-        <v>77</v>
-      </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B8" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
         <v>73</v>
       </c>
-      <c r="D8" t="s">
-        <v>78</v>
-      </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
         <v>54</v>
       </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B13" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.75">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
         <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.75">
       <c r="B17" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
